--- a/Data analysis R 20200203.xlsx
+++ b/Data analysis R 20200203.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KJD/Documents/Quest/Quest 2019-20/Class Document Spring 2020/2. R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KJD/Documents/Quest/Keystone/R.Keystone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE7569-03F2-7042-8739-5AE60E3AD566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C9666-3F00-B543-A084-7EF9077382FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{2D1029E6-3F11-9444-ADB0-A8B843A09F58}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14560" xr2:uid="{2D1029E6-3F11-9444-ADB0-A8B843A09F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
     </r>
   </si>
   <si>
-    <t>Complete MANCOVA assumption tests DUE at 9pm</t>
-  </si>
-  <si>
     <t>MANCOVA, regression, Shapiro-Wilks due at 11:59pm</t>
+  </si>
+  <si>
+    <t>Complete MANCOVA assumption tests DUE at 11:59pm</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6616A2-B7DC-454B-BAE0-420A32DC7FD7}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D20" s="16"/>
       <c r="H20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D21" s="16"/>
       <c r="H21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34">
